--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_6_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_6_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216552.5948468168</v>
+        <v>213589.7823762877</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3913749.045124742</v>
+        <v>3888328.528789297</v>
       </c>
     </row>
     <row r="11">
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>81.39848696832993</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>29.81855126207275</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="E23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2333,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2400,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2445,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U24" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="V24" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.09378870120887</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I25" t="n">
-        <v>60.09378870120881</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J25" t="n">
         <v>59.456666199969</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I26" t="n">
-        <v>29.81855126207271</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>135.7293992974318</v>
+        <v>29.81855126207263</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.61197602240899</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="28">
@@ -2716,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W28" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2837,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>29.81855126207263</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2880,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>37.74467096748101</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2925,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>60.36402868517416</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X30" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>29.81855126207263</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3111,22 +3113,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E33" t="n">
-        <v>60.14017676482181</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>105.4431334243205</v>
       </c>
       <c r="G33" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3229,25 +3231,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>81.39848696832993</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>119.5504549011779</v>
+        <v>29.81855126207263</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T36" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U36" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V36" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>20.6119760224089</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3439,58 +3441,58 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>119.5504549011778</v>
       </c>
-      <c r="I37" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
       <c r="V37" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="38">
@@ -3500,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="E38" t="n">
-        <v>29.81855126207272</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="Y38" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>89.73190363910518</v>
-      </c>
-      <c r="S38" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>60.36402868517423</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="X39" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,67 +3669,67 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="F40" t="n">
+      <c r="V40" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="G40" t="n">
+      <c r="W40" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="H40" t="n">
-        <v>81.39848696832989</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>38.15196793284785</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
     </row>
     <row r="41">
@@ -3740,17 +3742,17 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="D41" t="n">
+      <c r="F41" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="E41" t="n">
-        <v>29.81855126207271</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
@@ -3785,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
     </row>
     <row r="42">
@@ -3816,76 +3818,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
         <v>119.5504549011779</v>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="T42" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3910,55 +3912,55 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>38.15196793284785</v>
+      </c>
+      <c r="R43" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>81.39848696833005</v>
+      </c>
+      <c r="U43" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
       <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>29.81855126207263</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>60.36402868517418</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>145.230457248252</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>145.230457248252</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>145.230457248252</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>279.6025625527094</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>408.5454918852696</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>542.9175971897271</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>542.9175971897271</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>542.9175971897271</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>422.159561936012</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>285.0591586052728</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>285.0591586052728</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>285.0591586052728</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>285.0591586052728</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>139.8012812763547</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>274.1733865808121</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>408.5454918852696</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>408.5454918852696</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>542.9175971897271</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>542.9175971897271</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>542.9175971897271</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>542.9175971897271</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>405.8171938589879</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>405.8171938589879</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>405.8171938589879</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>268.7167905282488</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>131.6163871975096</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>44.46253968843796</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>145.0696190886975</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>263.0631252162992</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>381.4854669658995</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>479.9491134615892</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>542.917597189727</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>504.380255843416</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>422.159561936012</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>422.159561936012</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>422.159561936012</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>422.159561936012</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>422.159561936012</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>422.159561936012</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>422.159561936012</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>285.0591586052728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.1789073548413</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="C23" t="n">
-        <v>315.1789073548413</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="D23" t="n">
-        <v>285.0591586052728</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E23" t="n">
         <v>147.9587552745337</v>
@@ -5981,7 +5983,7 @@
         <v>147.9587552745337</v>
       </c>
       <c r="H23" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I23" t="n">
         <v>10.85835194379454</v>
@@ -5990,49 +5992,49 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K23" t="n">
-        <v>139.8012812763547</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="L23" t="n">
-        <v>139.8012812763547</v>
+        <v>351.601106825515</v>
       </c>
       <c r="M23" t="n">
-        <v>139.8012812763547</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="N23" t="n">
-        <v>274.1733865808121</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="O23" t="n">
-        <v>408.5454918852696</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="P23" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q23" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R23" t="n">
-        <v>452.2793106855804</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S23" t="n">
-        <v>452.2793106855804</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T23" t="n">
-        <v>452.2793106855804</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U23" t="n">
-        <v>452.2793106855804</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V23" t="n">
-        <v>452.2793106855804</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W23" t="n">
-        <v>452.2793106855804</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="X23" t="n">
-        <v>452.2793106855804</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="Y23" t="n">
-        <v>452.2793106855804</v>
+        <v>268.7167905282487</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C24" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D24" t="n">
         <v>10.85835194379454</v>
@@ -6075,43 +6077,43 @@
         <v>205.4846037813581</v>
       </c>
       <c r="M24" t="n">
-        <v>339.8567090858156</v>
+        <v>339.8567090858155</v>
       </c>
       <c r="N24" t="n">
-        <v>339.8567090858156</v>
+        <v>474.2288143902729</v>
       </c>
       <c r="O24" t="n">
-        <v>474.2288143902731</v>
+        <v>474.2288143902729</v>
       </c>
       <c r="P24" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q24" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R24" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S24" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T24" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="U24" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="V24" t="n">
-        <v>285.0591586052728</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W24" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X24" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y24" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>131.6163871975095</v>
+        <v>542.917597189727</v>
       </c>
       <c r="C25" t="n">
-        <v>131.6163871975095</v>
+        <v>542.917597189727</v>
       </c>
       <c r="D25" t="n">
-        <v>131.6163871975095</v>
+        <v>542.917597189727</v>
       </c>
       <c r="E25" t="n">
-        <v>131.6163871975095</v>
+        <v>542.917597189727</v>
       </c>
       <c r="F25" t="n">
-        <v>131.6163871975095</v>
+        <v>482.2168005218392</v>
       </c>
       <c r="G25" t="n">
-        <v>131.6163871975095</v>
+        <v>345.1163971911001</v>
       </c>
       <c r="H25" t="n">
-        <v>131.6163871975095</v>
+        <v>208.015993860361</v>
       </c>
       <c r="I25" t="n">
         <v>70.91559052962182</v>
@@ -6148,7 +6150,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K25" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L25" t="n">
         <v>145.0696190886975</v>
@@ -6169,28 +6171,28 @@
         <v>542.917597189727</v>
       </c>
       <c r="R25" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S25" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T25" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U25" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V25" t="n">
-        <v>268.7167905282487</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W25" t="n">
-        <v>268.7167905282487</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X25" t="n">
-        <v>131.6163871975095</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y25" t="n">
-        <v>131.6163871975095</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>178.0785040241021</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="C26" t="n">
-        <v>178.0785040241021</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="D26" t="n">
-        <v>178.0785040241021</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="E26" t="n">
-        <v>178.0785040241021</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="F26" t="n">
-        <v>40.97810069336293</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="G26" t="n">
-        <v>40.97810069336293</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H26" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I26" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J26" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K26" t="n">
-        <v>10.85835194379454</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="L26" t="n">
-        <v>10.85835194379454</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="M26" t="n">
-        <v>145.230457248252</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="N26" t="n">
-        <v>279.6025625527094</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="O26" t="n">
-        <v>413.9746678571669</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="P26" t="n">
-        <v>448.4853435031901</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q26" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R26" t="n">
-        <v>452.2793106855804</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S26" t="n">
-        <v>452.2793106855804</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T26" t="n">
-        <v>315.1789073548413</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U26" t="n">
-        <v>315.1789073548413</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V26" t="n">
-        <v>315.1789073548413</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W26" t="n">
-        <v>178.0785040241021</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X26" t="n">
-        <v>178.0785040241021</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y26" t="n">
-        <v>178.0785040241021</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C27" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D27" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E27" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F27" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G27" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H27" t="n">
-        <v>31.67852974420767</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I27" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J27" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K27" t="n">
-        <v>205.4846037813581</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L27" t="n">
-        <v>339.8567090858156</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M27" t="n">
-        <v>474.2288143902731</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="N27" t="n">
-        <v>542.9175971897271</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="O27" t="n">
-        <v>542.9175971897271</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P27" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q27" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R27" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S27" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T27" t="n">
-        <v>268.7167905282488</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U27" t="n">
-        <v>131.6163871975096</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V27" t="n">
-        <v>131.6163871975096</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W27" t="n">
-        <v>131.6163871975096</v>
+        <v>422.159561936012</v>
       </c>
       <c r="X27" t="n">
-        <v>131.6163871975096</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y27" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="C28" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="D28" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="E28" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F28" t="n">
         <v>10.85835194379454</v>
@@ -6394,40 +6396,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N28" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O28" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P28" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q28" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R28" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S28" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T28" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U28" t="n">
-        <v>268.7167905282488</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V28" t="n">
-        <v>131.6163871975096</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W28" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X28" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>285.0591586052728</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C29" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D29" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E29" t="n">
         <v>10.85835194379454</v>
@@ -6464,49 +6466,49 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K29" t="n">
-        <v>217.2290015210577</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="L29" t="n">
-        <v>217.2290015210577</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="M29" t="n">
-        <v>217.2290015210577</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="N29" t="n">
-        <v>314.1132381987326</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="O29" t="n">
-        <v>314.1132381987326</v>
+        <v>351.601106825515</v>
       </c>
       <c r="P29" t="n">
-        <v>448.4853435031901</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q29" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R29" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S29" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T29" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="U29" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="V29" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W29" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X29" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y29" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>346.0329249539337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C30" t="n">
-        <v>346.0329249539337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D30" t="n">
-        <v>346.0329249539337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E30" t="n">
-        <v>346.0329249539337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F30" t="n">
-        <v>307.9069946837509</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G30" t="n">
-        <v>179.1784947070355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H30" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I30" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J30" t="n">
+        <v>71.11249847690068</v>
+      </c>
+      <c r="K30" t="n">
+        <v>71.11249847690068</v>
+      </c>
+      <c r="L30" t="n">
+        <v>71.11249847690068</v>
+      </c>
+      <c r="M30" t="n">
+        <v>205.4846037813581</v>
+      </c>
+      <c r="N30" t="n">
+        <v>339.8567090858155</v>
+      </c>
+      <c r="O30" t="n">
+        <v>474.2288143902729</v>
+      </c>
+      <c r="P30" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="R30" t="n">
+        <v>483.1333282846728</v>
+      </c>
+      <c r="S30" t="n">
+        <v>483.1333282846728</v>
+      </c>
+      <c r="T30" t="n">
+        <v>483.1333282846728</v>
+      </c>
+      <c r="U30" t="n">
+        <v>422.159561936012</v>
+      </c>
+      <c r="V30" t="n">
+        <v>285.0591586052728</v>
+      </c>
+      <c r="W30" t="n">
+        <v>147.9587552745337</v>
+      </c>
+      <c r="X30" t="n">
+        <v>147.9587552745337</v>
+      </c>
+      <c r="Y30" t="n">
         <v>10.85835194379454</v>
-      </c>
-      <c r="K30" t="n">
-        <v>10.85835194379454</v>
-      </c>
-      <c r="L30" t="n">
-        <v>10.85835194379454</v>
-      </c>
-      <c r="M30" t="n">
-        <v>145.230457248252</v>
-      </c>
-      <c r="N30" t="n">
-        <v>274.1733865808121</v>
-      </c>
-      <c r="O30" t="n">
-        <v>408.5454918852696</v>
-      </c>
-      <c r="P30" t="n">
-        <v>408.5454918852696</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>542.9175971897271</v>
-      </c>
-      <c r="R30" t="n">
-        <v>483.1333282846729</v>
-      </c>
-      <c r="S30" t="n">
-        <v>483.1333282846729</v>
-      </c>
-      <c r="T30" t="n">
-        <v>483.1333282846729</v>
-      </c>
-      <c r="U30" t="n">
-        <v>483.1333282846729</v>
-      </c>
-      <c r="V30" t="n">
-        <v>483.1333282846729</v>
-      </c>
-      <c r="W30" t="n">
-        <v>483.1333282846729</v>
-      </c>
-      <c r="X30" t="n">
-        <v>346.0329249539337</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>346.0329249539337</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.9587552745337</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C31" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="D31" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="E31" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="F31" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="G31" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="H31" t="n">
         <v>10.85835194379454</v>
@@ -6622,7 +6624,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K31" t="n">
-        <v>44.46253968843799</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L31" t="n">
         <v>145.0696190886975</v>
@@ -6631,40 +6633,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N31" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O31" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P31" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q31" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R31" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="S31" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="T31" t="n">
-        <v>542.9175971897271</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="U31" t="n">
-        <v>542.9175971897271</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="V31" t="n">
-        <v>542.9175971897271</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="W31" t="n">
-        <v>542.9175971897271</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="X31" t="n">
-        <v>422.159561936012</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="Y31" t="n">
-        <v>285.0591586052728</v>
+        <v>131.6163871975095</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>131.6163871975096</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="C32" t="n">
-        <v>10.85835194379454</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="D32" t="n">
-        <v>10.85835194379454</v>
+        <v>422.159561936012</v>
       </c>
       <c r="E32" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="F32" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G32" t="n">
         <v>10.85835194379454</v>
@@ -6698,52 +6700,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J32" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K32" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L32" t="n">
-        <v>217.2290015210577</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M32" t="n">
-        <v>217.2290015210577</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N32" t="n">
-        <v>351.6011068255151</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="O32" t="n">
-        <v>351.6011068255151</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P32" t="n">
-        <v>448.4853435031901</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q32" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R32" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S32" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T32" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="U32" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="V32" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="W32" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="X32" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="Y32" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855803</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>268.7167905282488</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="C33" t="n">
-        <v>268.7167905282488</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="D33" t="n">
-        <v>268.7167905282488</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="E33" t="n">
-        <v>207.969137230449</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="F33" t="n">
-        <v>207.969137230449</v>
+        <v>239.5247093738119</v>
       </c>
       <c r="G33" t="n">
-        <v>79.24063725373355</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="H33" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I33" t="n">
         <v>10.85835194379454</v>
@@ -6780,49 +6782,49 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K33" t="n">
-        <v>145.230457248252</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L33" t="n">
         <v>145.230457248252</v>
       </c>
       <c r="M33" t="n">
-        <v>274.1733865808121</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N33" t="n">
-        <v>408.5454918852696</v>
+        <v>145.230457248252</v>
       </c>
       <c r="O33" t="n">
-        <v>408.5454918852696</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="P33" t="n">
-        <v>542.9175971897271</v>
+        <v>413.9746678571668</v>
       </c>
       <c r="Q33" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R33" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S33" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="T33" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="U33" t="n">
-        <v>405.8171938589879</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="V33" t="n">
-        <v>405.8171938589879</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="W33" t="n">
-        <v>268.7167905282488</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="X33" t="n">
-        <v>268.7167905282488</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="Y33" t="n">
-        <v>268.7167905282488</v>
+        <v>483.1333282846728</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C34" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D34" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E34" t="n">
         <v>10.85835194379454</v>
@@ -6859,49 +6861,49 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K34" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843787</v>
       </c>
       <c r="L34" t="n">
-        <v>145.0696190886975</v>
+        <v>145.0696190886974</v>
       </c>
       <c r="M34" t="n">
-        <v>263.0631252162992</v>
+        <v>263.0631252162991</v>
       </c>
       <c r="N34" t="n">
         <v>381.4854669658995</v>
       </c>
       <c r="O34" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615891</v>
       </c>
       <c r="P34" t="n">
         <v>542.917597189727</v>
       </c>
       <c r="Q34" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R34" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="S34" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T34" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="U34" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="V34" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W34" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X34" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y34" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>285.0591586052728</v>
+      </c>
+      <c r="C35" t="n">
+        <v>285.0591586052728</v>
+      </c>
+      <c r="D35" t="n">
+        <v>285.0591586052728</v>
+      </c>
+      <c r="E35" t="n">
         <v>147.9587552745337</v>
       </c>
-      <c r="C35" t="n">
-        <v>10.85835194379454</v>
-      </c>
-      <c r="D35" t="n">
-        <v>10.85835194379454</v>
-      </c>
-      <c r="E35" t="n">
-        <v>10.85835194379454</v>
-      </c>
       <c r="F35" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G35" t="n">
         <v>10.85835194379454</v>
@@ -6941,46 +6943,46 @@
         <v>10.85835194379454</v>
       </c>
       <c r="L35" t="n">
-        <v>145.230457248252</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M35" t="n">
-        <v>279.6025625527094</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="N35" t="n">
-        <v>413.9746678571669</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="O35" t="n">
-        <v>542.9175971897271</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="P35" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q35" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R35" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S35" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T35" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="U35" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="V35" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="W35" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="X35" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="Y35" t="n">
-        <v>285.0591586052728</v>
+        <v>422.159561936012</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="C36" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="D36" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="E36" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="F36" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="G36" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="H36" t="n">
         <v>10.85835194379454</v>
@@ -7017,49 +7019,49 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K36" t="n">
+        <v>71.11249847690068</v>
+      </c>
+      <c r="L36" t="n">
+        <v>71.11249847690068</v>
+      </c>
+      <c r="M36" t="n">
+        <v>71.11249847690068</v>
+      </c>
+      <c r="N36" t="n">
         <v>139.8012812763547</v>
       </c>
-      <c r="L36" t="n">
+      <c r="O36" t="n">
         <v>274.1733865808121</v>
       </c>
-      <c r="M36" t="n">
-        <v>408.5454918852696</v>
-      </c>
-      <c r="N36" t="n">
-        <v>408.5454918852696</v>
-      </c>
-      <c r="O36" t="n">
-        <v>542.9175971897271</v>
-      </c>
       <c r="P36" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q36" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R36" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S36" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T36" t="n">
-        <v>422.159561936012</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="U36" t="n">
-        <v>285.0591586052728</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="V36" t="n">
-        <v>147.9587552745337</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="W36" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="X36" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>268.7167905282487</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C37" t="n">
-        <v>268.7167905282487</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D37" t="n">
-        <v>268.7167905282487</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E37" t="n">
-        <v>268.7167905282487</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F37" t="n">
-        <v>268.7167905282487</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G37" t="n">
-        <v>268.7167905282487</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H37" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I37" t="n">
         <v>10.85835194379454</v>
@@ -7096,7 +7098,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K37" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L37" t="n">
         <v>145.0696190886975</v>
@@ -7117,28 +7119,28 @@
         <v>542.917597189727</v>
       </c>
       <c r="R37" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S37" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T37" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U37" t="n">
-        <v>405.8171938589878</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V37" t="n">
-        <v>268.7167905282487</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W37" t="n">
-        <v>268.7167905282487</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X37" t="n">
-        <v>268.7167905282487</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y37" t="n">
-        <v>268.7167905282487</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>315.1789073548413</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="C38" t="n">
-        <v>315.1789073548413</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="D38" t="n">
-        <v>178.0785040241021</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="E38" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F38" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G38" t="n">
         <v>10.85835194379454</v>
@@ -7175,49 +7177,49 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K38" t="n">
-        <v>139.8012812763547</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L38" t="n">
-        <v>274.1733865808121</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="M38" t="n">
-        <v>408.5454918852696</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="N38" t="n">
-        <v>408.5454918852696</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="O38" t="n">
-        <v>408.5454918852696</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="P38" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="Q38" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R38" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S38" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T38" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U38" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V38" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W38" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X38" t="n">
-        <v>315.1789073548413</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="Y38" t="n">
-        <v>315.1789073548413</v>
+        <v>268.7167905282488</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10.85835194379454</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="C39" t="n">
         <v>10.85835194379454</v>
@@ -7257,46 +7259,46 @@
         <v>71.11249847690068</v>
       </c>
       <c r="L39" t="n">
-        <v>205.4846037813581</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="M39" t="n">
-        <v>339.8567090858156</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="N39" t="n">
+        <v>139.8012812763547</v>
+      </c>
+      <c r="O39" t="n">
+        <v>274.1733865808121</v>
+      </c>
+      <c r="P39" t="n">
         <v>408.5454918852696</v>
-      </c>
-      <c r="O39" t="n">
-        <v>542.9175971897271</v>
-      </c>
-      <c r="P39" t="n">
-        <v>542.9175971897271</v>
       </c>
       <c r="Q39" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R39" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S39" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="T39" t="n">
-        <v>542.9175971897271</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="U39" t="n">
-        <v>405.8171938589879</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="V39" t="n">
-        <v>405.8171938589879</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="W39" t="n">
-        <v>268.7167905282488</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="X39" t="n">
-        <v>147.9587552745337</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="Y39" t="n">
-        <v>10.85835194379454</v>
+        <v>71.83211829245539</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>504.380255843416</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C40" t="n">
-        <v>504.380255843416</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D40" t="n">
-        <v>504.380255843416</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E40" t="n">
-        <v>367.2798525126768</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F40" t="n">
-        <v>230.1794491819377</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G40" t="n">
-        <v>93.07904585119849</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H40" t="n">
         <v>10.85835194379454</v>
@@ -7342,40 +7344,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N40" t="n">
-        <v>381.4854669658995</v>
+        <v>381.4854669658996</v>
       </c>
       <c r="O40" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615893</v>
       </c>
       <c r="P40" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q40" t="n">
-        <v>504.380255843416</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R40" t="n">
-        <v>504.380255843416</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S40" t="n">
-        <v>504.380255843416</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T40" t="n">
-        <v>504.380255843416</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U40" t="n">
-        <v>504.380255843416</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V40" t="n">
-        <v>504.380255843416</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="W40" t="n">
-        <v>504.380255843416</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="X40" t="n">
-        <v>504.380255843416</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="Y40" t="n">
-        <v>504.380255843416</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>315.1789073548413</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="C41" t="n">
-        <v>178.0785040241021</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="D41" t="n">
-        <v>40.97810069336293</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="E41" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F41" t="n">
         <v>10.85835194379454</v>
@@ -7409,16 +7411,16 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J41" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K41" t="n">
-        <v>10.85835194379454</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L41" t="n">
-        <v>139.8012812763547</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="M41" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="N41" t="n">
         <v>408.5454918852696</v>
@@ -7433,28 +7435,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R41" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S41" t="n">
-        <v>452.2793106855804</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="T41" t="n">
-        <v>452.2793106855804</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U41" t="n">
-        <v>452.2793106855804</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V41" t="n">
-        <v>452.2793106855804</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W41" t="n">
-        <v>452.2793106855804</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X41" t="n">
-        <v>315.1789073548413</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="Y41" t="n">
-        <v>315.1789073548413</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C42" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D42" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E42" t="n">
         <v>10.85835194379454</v>
@@ -7491,10 +7493,10 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K42" t="n">
-        <v>71.11249847690068</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L42" t="n">
-        <v>71.11249847690068</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="M42" t="n">
         <v>205.4846037813581</v>
@@ -7503,10 +7505,10 @@
         <v>339.8567090858156</v>
       </c>
       <c r="O42" t="n">
-        <v>474.2288143902731</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="P42" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="Q42" t="n">
         <v>542.9175971897271</v>
@@ -7515,25 +7517,25 @@
         <v>542.9175971897271</v>
       </c>
       <c r="S42" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T42" t="n">
-        <v>268.7167905282488</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U42" t="n">
-        <v>268.7167905282488</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V42" t="n">
-        <v>268.7167905282488</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W42" t="n">
-        <v>131.6163871975096</v>
+        <v>422.159561936012</v>
       </c>
       <c r="X42" t="n">
-        <v>131.6163871975096</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y42" t="n">
-        <v>131.6163871975096</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C43" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D43" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E43" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F43" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G43" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H43" t="n">
         <v>10.85835194379454</v>
@@ -7570,7 +7572,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K43" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843799</v>
       </c>
       <c r="L43" t="n">
         <v>145.0696190886975</v>
@@ -7588,31 +7590,31 @@
         <v>542.9175971897271</v>
       </c>
       <c r="Q43" t="n">
-        <v>542.9175971897271</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="R43" t="n">
-        <v>542.9175971897271</v>
+        <v>367.2798525126769</v>
       </c>
       <c r="S43" t="n">
-        <v>405.8171938589879</v>
+        <v>367.2798525126769</v>
       </c>
       <c r="T43" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="U43" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="V43" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W43" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X43" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y43" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>145.0696190886975</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>263.0631252162992</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
     </row>
   </sheetData>
@@ -9401,7 +9403,7 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K20" t="n">
-        <v>314.5524032714785</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L20" t="n">
         <v>191.5602121631146</v>
@@ -9410,13 +9412,13 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N20" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O20" t="n">
-        <v>317.2001799443227</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P20" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q20" t="n">
         <v>180.6233730229902</v>
@@ -9480,19 +9482,19 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>242.2415523308688</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L21" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M21" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N21" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O21" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
         <v>108.8542060241433</v>
@@ -9559,22 +9561,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
-        <v>138.7668962480483</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L22" t="n">
-        <v>211.2171120040207</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M22" t="n">
-        <v>232.0625591822793</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N22" t="n">
-        <v>223.3630318978003</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O22" t="n">
-        <v>211.9541662756472</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P22" t="n">
-        <v>175.5085323082534</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q22" t="n">
         <v>84.9458458910769</v>
@@ -9638,25 +9640,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>236.3425848424856</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L23" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M23" t="n">
-        <v>187.1563144971591</v>
+        <v>285.0191798281438</v>
       </c>
       <c r="N23" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O23" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P23" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q23" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9720,16 +9722,16 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L24" t="n">
-        <v>248.3048328685796</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M24" t="n">
-        <v>251.2133018590717</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N24" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O24" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P24" t="n">
         <v>178.2368149124807</v>
@@ -9872,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L26" t="n">
         <v>191.5602121631146</v>
       </c>
       <c r="M26" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N26" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O26" t="n">
-        <v>322.6841960775522</v>
+        <v>284.8176621111052</v>
       </c>
       <c r="P26" t="n">
-        <v>222.7360773804728</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q26" t="n">
         <v>276.0094878578761</v>
@@ -9951,28 +9953,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L27" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M27" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N27" t="n">
-        <v>176.0977499560457</v>
+        <v>236.9605242319105</v>
       </c>
       <c r="O27" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P27" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10036,7 +10038,7 @@
         <v>138.7668962480483</v>
       </c>
       <c r="L28" t="n">
-        <v>211.2171120040208</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M28" t="n">
         <v>232.0625591822793</v>
@@ -10112,22 +10114,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>314.5524032714785</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L29" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M29" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N29" t="n">
-        <v>284.2609795032149</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O29" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P29" t="n">
-        <v>323.6062083485883</v>
+        <v>285.7396743821412</v>
       </c>
       <c r="Q29" t="n">
         <v>276.0094878578761</v>
@@ -10188,7 +10190,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>111.9961691666667</v>
@@ -10197,19 +10199,19 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M30" t="n">
-        <v>251.2133018590717</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N30" t="n">
-        <v>236.9605242319105</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O30" t="n">
-        <v>251.5888479085429</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P30" t="n">
-        <v>108.8542060241433</v>
+        <v>178.2368149124807</v>
       </c>
       <c r="Q30" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K32" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L32" t="n">
-        <v>327.2896114605464</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M32" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N32" t="n">
-        <v>322.1275134696619</v>
+        <v>316.6434973364323</v>
       </c>
       <c r="O32" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7396743821413</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10428,25 +10430,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M33" t="n">
-        <v>245.7292857258421</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N33" t="n">
-        <v>242.4445403651401</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O33" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P33" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7351914448925</v>
+        <v>243.9805746090947</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10507,7 +10509,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>138.7668962480483</v>
+        <v>138.7668962480482</v>
       </c>
       <c r="L34" t="n">
         <v>211.2171120040207</v>
@@ -10589,22 +10591,22 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L35" t="n">
-        <v>327.2896114605464</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M35" t="n">
-        <v>322.8857137945909</v>
+        <v>222.0155828264754</v>
       </c>
       <c r="N35" t="n">
-        <v>322.1275134696619</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O35" t="n">
-        <v>317.2001799443227</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P35" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q35" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10665,25 +10667,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>181.378778055004</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L36" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M36" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N36" t="n">
-        <v>106.7151410677083</v>
+        <v>176.0977499560457</v>
       </c>
       <c r="O36" t="n">
-        <v>251.5888479085429</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P36" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10823,25 +10825,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>236.3425848424856</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L38" t="n">
-        <v>327.2896114605464</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M38" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N38" t="n">
-        <v>186.3981141722301</v>
+        <v>284.2609795032149</v>
       </c>
       <c r="O38" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P38" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q38" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10905,10 +10907,10 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L39" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M39" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N39" t="n">
         <v>176.0977499560457</v>
@@ -10917,10 +10919,10 @@
         <v>251.5888479085429</v>
       </c>
       <c r="P39" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423243</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L41" t="n">
-        <v>321.8055953273168</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M41" t="n">
-        <v>322.8857137945909</v>
+        <v>244.675895365598</v>
       </c>
       <c r="N41" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O41" t="n">
         <v>322.6841960775522</v>
@@ -11139,25 +11141,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L42" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M42" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N42" t="n">
         <v>242.4445403651401</v>
       </c>
       <c r="O42" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P42" t="n">
         <v>178.2368149124807</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423243</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11227,7 +11229,7 @@
         <v>232.0625591822793</v>
       </c>
       <c r="N43" t="n">
-        <v>223.3630318978004</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O43" t="n">
         <v>211.9541662756472</v>
@@ -11303,19 +11305,19 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M44" t="n">
-        <v>187.1563144971591</v>
+        <v>222.0155828264754</v>
       </c>
       <c r="N44" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O44" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P44" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q44" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11385,16 +11387,16 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N45" t="n">
-        <v>106.7151410677083</v>
+        <v>236.9605242319105</v>
       </c>
       <c r="O45" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11455,22 +11457,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L46" t="n">
-        <v>109.5937994785061</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M46" t="n">
-        <v>112.8771994574291</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N46" t="n">
-        <v>103.744504878002</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O46" t="n">
-        <v>112.4959374921223</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P46" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q46" t="n">
         <v>84.9458458910769</v>
@@ -23987,7 +23989,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
-        <v>35.35962750586017</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>65.80623071477164</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
-        <v>86.38595750886716</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
         <v>252.3364829231459</v>
@@ -24032,7 +24034,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -24096,7 +24098,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
         <v>186.7982527956746</v>
@@ -24105,13 +24107,13 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>76.38736333980543</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.99041570010425</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -24142,7 +24144,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -24169,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>66.62807660343563</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
         <v>211.5726649703493</v>
@@ -24193,7 +24195,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.0854079222139</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>339.2771738629759</v>
+        <v>249.5452702238708</v>
       </c>
       <c r="E23" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
@@ -24221,10 +24223,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>193.7636623612321</v>
       </c>
       <c r="I23" t="n">
-        <v>35.35962750586017</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>185.3566856159496</v>
@@ -24263,10 +24265,10 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
@@ -24288,7 +24290,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>1.720851342258271</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
         <v>145.5577298436975</v>
@@ -24333,22 +24335,22 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995537</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>51.0688534982429</v>
       </c>
       <c r="U24" t="n">
-        <v>80.58044518024116</v>
+        <v>96.75938957649508</v>
       </c>
       <c r="V24" t="n">
-        <v>106.5612114249714</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X24" t="n">
-        <v>60.20841894355158</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
         <v>190.5961130869169</v>
@@ -24373,16 +24375,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>90.86205972327178</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839674</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108717</v>
       </c>
       <c r="I25" t="n">
-        <v>82.66722525213945</v>
+        <v>7.031614655916513</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
         <v>211.5726649703493</v>
@@ -24421,13 +24423,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V25" t="n">
-        <v>122.3985520997298</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>93.21054016614622</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -24452,16 +24454,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>274.2802794854996</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>193.7636623612321</v>
       </c>
       <c r="I26" t="n">
-        <v>141.2704755412192</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,16 +24496,16 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>86.38595750886716</v>
+        <v>192.2968055442263</v>
       </c>
       <c r="U26" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257142</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
@@ -24522,7 +24524,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
-        <v>160.0866360314548</v>
+        <v>24.3572367340231</v>
       </c>
       <c r="D27" t="n">
         <v>137.45025063969</v>
@@ -24537,10 +24539,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>47.08648643443061</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,25 +24572,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
-        <v>238.9027100790231</v>
+        <v>119.3522551778452</v>
       </c>
       <c r="X27" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355161</v>
       </c>
       <c r="Y27" t="n">
-        <v>190.5961130869169</v>
+        <v>54.8667137894852</v>
       </c>
     </row>
     <row r="28">
@@ -24604,13 +24606,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>15.81177494308315</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>30.9384691951165</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>15.22644912704891</v>
       </c>
       <c r="G28" t="n">
         <v>167.2305511458285</v>
@@ -24652,16 +24654,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T28" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>148.5889378183593</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
-        <v>122.3985520997298</v>
+        <v>122.3985520997299</v>
       </c>
       <c r="W28" t="n">
-        <v>163.744382566597</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
         <v>228.939939463578</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>270.552649221661</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>242.3850217830889</v>
@@ -24686,7 +24688,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
         <v>410.0096787829314</v>
@@ -24725,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>86.38595750886716</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>303.7909301009454</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24768,16 +24770,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>95.6021891021434</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24813,19 +24815,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>216.3098444776729</v>
+        <v>155.9458157924988</v>
       </c>
       <c r="V30" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W30" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X30" t="n">
-        <v>60.20841894355158</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
-        <v>190.5961130869169</v>
+        <v>54.8667137894852</v>
       </c>
     </row>
     <row r="31">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.99041570010425</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>32.19041054550473</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
         <v>151.5411742405149</v>
@@ -24853,7 +24855,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H31" t="n">
-        <v>157.7789187685189</v>
+        <v>38.22846386734108</v>
       </c>
       <c r="I31" t="n">
         <v>142.7610139533483</v>
@@ -24883,13 +24885,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
-        <v>148.0265635717656</v>
+        <v>12.29716427433382</v>
       </c>
       <c r="S31" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291757</v>
       </c>
       <c r="T31" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504621</v>
       </c>
       <c r="U31" t="n">
         <v>284.3183371157911</v>
@@ -24901,10 +24903,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>109.3894845624001</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>84.0854079222139</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>258.5639661793427</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>339.277173862976</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>255.1084633975225</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H32" t="n">
         <v>329.4930616586638</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>49.6272863185178</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T32" t="n">
-        <v>86.38595750886716</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
         <v>252.3364829231459</v>
@@ -24999,22 +25001,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D33" t="n">
-        <v>137.45025063969</v>
+        <v>1.7208513422583</v>
       </c>
       <c r="E33" t="n">
-        <v>85.41755307887567</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>27.90372664530393</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -25050,13 +25052,13 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.99041570010425</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>32.19041054550473</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>15.81177494308312</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>30.93846919511643</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
         <v>150.9558484244806</v>
@@ -25117,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>148.0265635717656</v>
+        <v>66.62807660343563</v>
       </c>
       <c r="S34" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504621</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183594</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25154,19 +25156,19 @@
         <v>254.3737048254072</v>
       </c>
       <c r="C35" t="n">
-        <v>242.3850217830889</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>255.1084633975225</v>
       </c>
       <c r="F35" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H35" t="n">
         <v>329.4930616586638</v>
@@ -25199,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>86.38595750886716</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
         <v>252.3364829231459</v>
@@ -25220,7 +25222,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>270.0559819687424</v>
+        <v>359.7878856078477</v>
       </c>
     </row>
     <row r="36">
@@ -25248,7 +25250,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>67.69846245683961</v>
@@ -25281,22 +25283,22 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995537</v>
       </c>
       <c r="T36" t="n">
-        <v>67.24779789449671</v>
+        <v>51.0688534982429</v>
       </c>
       <c r="U36" t="n">
-        <v>80.58044518024116</v>
+        <v>80.58044518024118</v>
       </c>
       <c r="V36" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
-        <v>195.9378182409833</v>
+        <v>175.3258422185745</v>
       </c>
       <c r="Y36" t="n">
         <v>190.5961130869169</v>
@@ -25327,10 +25329,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H37" t="n">
-        <v>38.22846386734109</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -25357,7 +25359,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>211.5726649703493</v>
@@ -25366,19 +25368,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>164.7678822146133</v>
       </c>
       <c r="V37" t="n">
-        <v>122.3985520997298</v>
+        <v>122.3985520997299</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>84.08540792221393</v>
       </c>
     </row>
     <row r="38">
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>254.3737048254072</v>
       </c>
       <c r="C38" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>361.0193114328815</v>
+        <v>271.2874077937763</v>
       </c>
       <c r="F38" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
         <v>329.4930616586638</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
-        <v>49.6272863185178</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
         <v>222.1153568062989</v>
@@ -25454,10 +25456,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25472,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
-        <v>160.0866360314548</v>
+        <v>99.72260734628061</v>
       </c>
       <c r="D39" t="n">
         <v>137.45025063969</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>51.06885349824287</v>
       </c>
       <c r="U39" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871759</v>
       </c>
       <c r="W39" t="n">
         <v>103.1733107815913</v>
       </c>
       <c r="X39" t="n">
-        <v>76.38736333980542</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
-        <v>54.86671378948517</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="40">
@@ -25555,16 +25557,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H40" t="n">
-        <v>76.38043180018902</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
         <v>142.7610139533483</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
         <v>148.0265635717656</v>
@@ -25603,19 +25605,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997298</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>100.2643523184678</v>
       </c>
     </row>
     <row r="41">
@@ -25628,16 +25630,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>242.3850217830889</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>361.0193114328815</v>
+        <v>255.1084633975224</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G41" t="n">
         <v>411.9429466803539</v>
@@ -25673,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>49.6272863185178</v>
       </c>
       <c r="T41" t="n">
         <v>222.1153568062989</v>
@@ -25691,10 +25693,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>270.0559819687424</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.8252483534483</v>
+        <v>22.0958490560165</v>
       </c>
       <c r="C42" t="n">
-        <v>160.0866360314548</v>
+        <v>24.35723673402308</v>
       </c>
       <c r="D42" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
-        <v>26.00727494251956</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
         <v>133.3468600696244</v>
@@ -25755,10 +25757,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>15.54209281995534</v>
+        <v>31.72103721620918</v>
       </c>
       <c r="T42" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
         <v>216.3098444776729</v>
@@ -25767,13 +25769,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>54.86671378948517</v>
       </c>
     </row>
     <row r="43">
@@ -25798,10 +25800,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>47.68009624465056</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H43" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
@@ -25828,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S43" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
-        <v>230.8471636524779</v>
+        <v>149.4486766841479</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V43" t="n">
-        <v>122.3985520997298</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>254.3737048254072</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
@@ -25877,7 +25879,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H44" t="n">
         <v>329.4930616586638</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>185.3566856159496</v>
@@ -25928,10 +25930,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>348.391287811649</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="45">
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -25998,19 +26000,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024118</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W45" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.5961130869169</v>
+        <v>130.2320844017428</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>62.1693600963582</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -26035,10 +26037,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839674</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108717</v>
       </c>
       <c r="I46" t="n">
         <v>142.7610139533483</v>
@@ -26071,7 +26073,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291757</v>
       </c>
       <c r="T46" t="n">
         <v>230.8471636524779</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>400744.6147128079</v>
+        <v>281309.4386566844</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>400744.6147128077</v>
+        <v>400744.6147128078</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>400744.6147128074</v>
+        <v>400744.6147128078</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>400744.6147128077</v>
+        <v>400744.6147128078</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>400744.6147128077</v>
+        <v>400744.6147128075</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>400744.6147128078</v>
+        <v>400744.6147128076</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>400744.6147128079</v>
+        <v>400744.6147128076</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>400744.6147128078</v>
+        <v>400744.6147128077</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>281309.4386566844</v>
+        <v>400744.6147128077</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>63521.48614828361</v>
+      </c>
+      <c r="C2" t="n">
+        <v>63521.4861482836</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63521.4861482836</v>
+      </c>
+      <c r="E2" t="n">
+        <v>63521.4861482836</v>
+      </c>
+      <c r="F2" t="n">
         <v>63521.48614828358</v>
-      </c>
-      <c r="C2" t="n">
-        <v>63521.48614828359</v>
-      </c>
-      <c r="D2" t="n">
-        <v>63521.48614828358</v>
-      </c>
-      <c r="E2" t="n">
-        <v>63521.48614828358</v>
-      </c>
-      <c r="F2" t="n">
-        <v>63521.4861482836</v>
       </c>
       <c r="G2" t="n">
         <v>63521.4861482836</v>
       </c>
       <c r="H2" t="n">
-        <v>90437.83130603007</v>
+        <v>63521.4861482836</v>
       </c>
       <c r="I2" t="n">
-        <v>90437.83130603007</v>
+        <v>90437.8313060301</v>
       </c>
       <c r="J2" t="n">
-        <v>90437.83130603007</v>
+        <v>90437.83130603009</v>
       </c>
       <c r="K2" t="n">
-        <v>90437.83130603009</v>
+        <v>90437.83130603006</v>
       </c>
       <c r="L2" t="n">
-        <v>90437.83130603007</v>
+        <v>90437.8313060301</v>
       </c>
       <c r="M2" t="n">
-        <v>90437.83130603009</v>
+        <v>90437.8313060301</v>
       </c>
       <c r="N2" t="n">
-        <v>90437.83130603009</v>
+        <v>90437.83130603012</v>
       </c>
       <c r="O2" t="n">
-        <v>90437.83130603009</v>
+        <v>90437.83130603004</v>
       </c>
       <c r="P2" t="n">
-        <v>63521.48614828358</v>
+        <v>90437.8313060301</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>36621.01349504077</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>36093.29759057234</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26433,22 +26435,22 @@
         <v>27223.49406355011</v>
       </c>
       <c r="H4" t="n">
-        <v>39110.98744293879</v>
+        <v>27223.49406355011</v>
       </c>
       <c r="I4" t="n">
+        <v>39110.98744293877</v>
+      </c>
+      <c r="J4" t="n">
         <v>39110.98744293878</v>
       </c>
-      <c r="J4" t="n">
-        <v>39110.98744293879</v>
-      </c>
       <c r="K4" t="n">
-        <v>39110.98744293878</v>
+        <v>39110.98744293877</v>
       </c>
       <c r="L4" t="n">
-        <v>39110.98744293878</v>
+        <v>39110.98744293877</v>
       </c>
       <c r="M4" t="n">
-        <v>39110.98744293879</v>
+        <v>39110.98744293877</v>
       </c>
       <c r="N4" t="n">
         <v>39110.98744293878</v>
@@ -26457,7 +26459,7 @@
         <v>39110.98744293878</v>
       </c>
       <c r="P4" t="n">
-        <v>27223.49406355011</v>
+        <v>39110.98744293878</v>
       </c>
     </row>
     <row r="5">
@@ -26485,22 +26487,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>8252.347477283851</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="J5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="K5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="L5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="M5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="N5" t="n">
         <v>8252.347477283851</v>
@@ -26509,7 +26511,7 @@
         <v>8252.347477283851</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>8252.347477283849</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2670.392084733474</v>
+        <v>2670.392084733496</v>
       </c>
       <c r="C6" t="n">
         <v>2670.392084733488</v>
       </c>
       <c r="D6" t="n">
-        <v>2670.392084733474</v>
+        <v>2670.392084733488</v>
       </c>
       <c r="E6" t="n">
+        <v>36297.99208473349</v>
+      </c>
+      <c r="F6" t="n">
         <v>36297.99208473347</v>
-      </c>
-      <c r="F6" t="n">
-        <v>36297.99208473349</v>
       </c>
       <c r="G6" t="n">
         <v>36297.99208473349</v>
       </c>
       <c r="H6" t="n">
-        <v>6453.482890766662</v>
+        <v>36297.99208473349</v>
       </c>
       <c r="I6" t="n">
-        <v>43074.49638580744</v>
+        <v>6981.198795235137</v>
       </c>
       <c r="J6" t="n">
+        <v>43074.49638580746</v>
+      </c>
+      <c r="K6" t="n">
         <v>43074.49638580743</v>
       </c>
-      <c r="K6" t="n">
-        <v>43074.49638580746</v>
-      </c>
       <c r="L6" t="n">
-        <v>43074.49638580744</v>
+        <v>43074.49638580748</v>
       </c>
       <c r="M6" t="n">
-        <v>43074.49638580745</v>
+        <v>43074.49638580748</v>
       </c>
       <c r="N6" t="n">
-        <v>43074.49638580746</v>
+        <v>43074.49638580748</v>
       </c>
       <c r="O6" t="n">
-        <v>43074.49638580746</v>
+        <v>43074.49638580741</v>
       </c>
       <c r="P6" t="n">
-        <v>36297.99208473347</v>
+        <v>43074.49638580748</v>
       </c>
     </row>
   </sheetData>
@@ -26805,22 +26807,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="K4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N4" t="n">
         <v>135.7293992974318</v>
@@ -26829,7 +26831,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36130,13 +36132,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>33.9436239844883</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>101.6233125255146</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>119.1853597248502</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6185270197983</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>99.45822878352493</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>63.604529018321</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,25 +36360,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>57.51958086843886</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>97.86286533098475</v>
       </c>
       <c r="N23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M24" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>69.38260888833734</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36531,7 +36533,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
-        <v>63.604529018321</v>
+        <v>63.60452901832097</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>135.7293992974318</v>
+        <v>97.86286533098475</v>
       </c>
       <c r="P26" t="n">
-        <v>34.85926832931634</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q26" t="n">
         <v>95.38611483488586</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>69.38260888833734</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,7 +36758,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
-        <v>101.6233125255147</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M28" t="n">
         <v>119.1853597248502</v>
@@ -36832,22 +36834,22 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>97.86286533098477</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P29" t="n">
-        <v>135.7293992974318</v>
+        <v>97.86286533098475</v>
       </c>
       <c r="Q29" t="n">
         <v>95.38611483488586</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N30" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O30" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>33.94362398448833</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L31" t="n">
         <v>101.6233125255146</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P32" t="n">
-        <v>97.8628653309848</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="P33" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="Q33" t="n">
         <v>130.2453831642022</v>
-      </c>
-      <c r="N33" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>33.94362398448821</v>
       </c>
       <c r="L34" t="n">
         <v>101.6233125255146</v>
@@ -37309,22 +37311,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>135.7293992974318</v>
+        <v>34.8592683293163</v>
       </c>
       <c r="N35" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O35" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K36" t="n">
-        <v>69.38260888833736</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>69.38260888833739</v>
       </c>
       <c r="O36" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,25 +37545,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>57.51958086843886</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>97.86286533098477</v>
+      </c>
+      <c r="O38" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="M38" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>69.38260888833734</v>
+        <v>69.38260888833736</v>
       </c>
       <c r="O39" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L41" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M41" t="n">
-        <v>135.7293992974318</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="N41" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>135.7293992974318</v>
@@ -37859,25 +37861,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="O42" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>69.38260888833734</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>33.9436239844883</v>
+        <v>33.94362398448833</v>
       </c>
       <c r="L43" t="n">
         <v>101.6233125255146</v>
@@ -37947,7 +37949,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N43" t="n">
-        <v>119.6185270197984</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
         <v>99.45822878352493</v>
@@ -38023,19 +38025,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>34.8592683293163</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38105,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
